--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skolomiets\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nebojsha.davidovikj\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>Sergei Kolomiets</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,63 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dueDate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dueDate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dueDate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dueDate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>RuleSet</t>
   </si>
@@ -124,9 +180,6 @@
   </si>
   <si>
     <t>Import</t>
-  </si>
-  <si>
-    <t>com.armedia.acm.plugins.ecm.model.EcmFile</t>
   </si>
   <si>
     <t>com.armedia.acm.plugins.ecm.workflow.EcmFileWorkflowConfiguration</t>
@@ -151,9 +204,6 @@
   </si>
   <si>
     <t>ecmFile.fileType.equals("$param") || "$param".equals("*")</t>
-  </si>
-  <si>
-    <t>$file.setStartProcess($param);</t>
   </si>
   <si>
     <t>$file.setProcessName("$param");</t>
@@ -213,9 +263,6 @@
     <t>roi</t>
   </si>
   <si>
-    <t>New Complaint Form</t>
-  </si>
-  <si>
     <t>complaint</t>
   </si>
   <si>
@@ -223,9 +270,6 @@
   </si>
   <si>
     <t>change_case_status</t>
-  </si>
-  <si>
-    <t>Case File</t>
   </si>
   <si>
     <t>case_file</t>
@@ -237,16 +281,77 @@
     <t>timesheet</t>
   </si>
   <si>
-    <t>Costsheet</t>
+    <t>ArkCaseBuckslipProcess</t>
   </si>
   <si>
-    <t>costsheet</t>
+    <t>Task name</t>
+  </si>
+  <si>
+    <t>Comma-separated list of user ids; these users will be the reviewers.</t>
+  </si>
+  <si>
+    <t>Business-meaningful process name</t>
+  </si>
+  <si>
+    <t>ann-acm,ian-acm,samuel-acm</t>
+  </si>
+  <si>
+    <t>Buckslip Case File</t>
+  </si>
+  <si>
+    <t>Buckslip Complaint</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>function Boolean evalSpring(String expression, Object obj)
+{
+    ExpressionParser ep = new SpelExpressionParser();
+    Expression exp = ep.parseExpression(expression);
+    EvaluationContext ec = new StandardEvaluationContext();
+    Boolean evaluated = exp.getValue(ec, obj, Boolean.class);
+    return evaluated;
+}</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.spel.standard.SpelExpressionParser</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.spel.support.StandardEvaluationContext</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.EvaluationContext</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.Expression</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.ExpressionParser</t>
+  </si>
+  <si>
+    <t>$file.setTaskName("$param");</t>
+  </si>
+  <si>
+    <t>$file.setApprovers("$param");</t>
+  </si>
+  <si>
+    <t>$file.setRequestType("$param");</t>
+  </si>
+  <si>
+    <t>$file.setStartProcess($param);</t>
+  </si>
+  <si>
+    <t>$file.setBuckslipProcess($param);</t>
+  </si>
+  <si>
+    <t>is buckslip process?               false is by default.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -494,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -520,7 +625,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -536,6 +640,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,6 +814,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -733,6 +866,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -888,25 +1038,29 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:G500"/>
+  <dimension ref="A1:K505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125"/>
-    <col min="2" max="2" width="24.28515625"/>
-    <col min="3" max="3" width="49.85546875"/>
-    <col min="4" max="4" width="31.7109375"/>
-    <col min="5" max="5" width="35.7109375"/>
-    <col min="6" max="6" width="24.140625"/>
-    <col min="7" max="7" width="35.5703125"/>
-    <col min="8" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="21.5546875"/>
+    <col min="2" max="2" width="24.33203125"/>
+    <col min="3" max="3" width="49.88671875"/>
+    <col min="4" max="4" width="31.6640625"/>
+    <col min="5" max="5" width="35.6640625"/>
+    <col min="6" max="6" width="24.109375"/>
+    <col min="7" max="7" width="35.5546875"/>
+    <col min="8" max="8" width="27.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" customWidth="1"/>
+    <col min="10" max="10" width="30.21875" customWidth="1"/>
+    <col min="11" max="11" width="25.77734375" customWidth="1"/>
+    <col min="12" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -915,7 +1069,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
@@ -928,342 +1082,462 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>3</v>
+      <c r="D3" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>4</v>
+      <c r="D4" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>6</v>
+      <c r="C5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="F15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="H15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="E16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="5">
-        <v>50</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="5">
-        <v>50</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="5">
-        <v>50</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="5">
         <v>50</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>5</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" s="5">
         <v>50</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="5">
+        <v>50</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="5">
+        <v>50</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="5">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="5">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="5">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
@@ -1271,8 +1545,12 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="6"/>
@@ -1280,8 +1558,12 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
@@ -1289,8 +1571,12 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
@@ -1299,7 +1585,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6"/>
@@ -1308,7 +1594,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="6"/>
@@ -1317,7 +1603,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
@@ -1326,7 +1612,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="6"/>
@@ -1335,7 +1621,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="6"/>
@@ -1344,7 +1630,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="6"/>
@@ -1353,7 +1639,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6"/>
@@ -1362,7 +1648,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="6"/>
@@ -1371,7 +1657,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="6"/>
@@ -1380,7 +1666,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="6"/>
@@ -1389,7 +1675,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="6"/>
@@ -1398,7 +1684,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="6"/>
@@ -1407,7 +1693,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="6"/>
@@ -1416,7 +1702,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="6"/>
@@ -1425,7 +1711,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="6"/>
@@ -1434,7 +1720,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="6"/>
@@ -1443,7 +1729,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="6"/>
@@ -1452,7 +1738,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="6"/>
@@ -1461,7 +1747,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="6"/>
@@ -1470,7 +1756,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="6"/>
@@ -1479,7 +1765,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="6"/>
@@ -1488,7 +1774,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="6"/>
@@ -1497,7 +1783,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="6"/>
@@ -1506,7 +1792,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="6"/>
@@ -1515,7 +1801,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="6"/>
@@ -1524,7 +1810,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="6"/>
@@ -1533,7 +1819,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="6"/>
@@ -1542,7 +1828,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="6"/>
@@ -1551,7 +1837,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="6"/>
@@ -1560,7 +1846,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="6"/>
@@ -1569,7 +1855,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="6"/>
@@ -1578,7 +1864,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="6"/>
@@ -1587,7 +1873,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="6"/>
@@ -1596,7 +1882,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="6"/>
@@ -1605,7 +1891,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
@@ -1614,7 +1900,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6"/>
@@ -1623,7 +1909,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="6"/>
@@ -1632,7 +1918,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="6"/>
@@ -1641,7 +1927,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="6"/>
@@ -1650,7 +1936,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="6"/>
@@ -1659,7 +1945,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="6"/>
@@ -1668,7 +1954,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="6"/>
@@ -1677,7 +1963,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="6"/>
@@ -1686,7 +1972,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="6"/>
@@ -1695,7 +1981,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="6"/>
@@ -1704,7 +1990,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="6"/>
@@ -1713,7 +1999,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="6"/>
@@ -1722,7 +2008,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="6"/>
@@ -1731,7 +2017,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="6"/>
@@ -1740,7 +2026,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6"/>
@@ -1749,7 +2035,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="6"/>
@@ -1758,7 +2044,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="6"/>
@@ -1767,7 +2053,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="6"/>
@@ -1776,7 +2062,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="6"/>
@@ -1785,7 +2071,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="6"/>
@@ -1794,7 +2080,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="6"/>
@@ -1803,7 +2089,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="6"/>
@@ -1812,7 +2098,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="6"/>
@@ -1821,7 +2107,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="6"/>
@@ -1830,7 +2116,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="6"/>
@@ -1839,7 +2125,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="6"/>
@@ -1848,7 +2134,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="6"/>
@@ -1857,7 +2143,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="6"/>
@@ -1866,7 +2152,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="6"/>
@@ -1875,7 +2161,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="6"/>
@@ -1884,7 +2170,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="6"/>
@@ -1893,7 +2179,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="6"/>
@@ -1902,7 +2188,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="6"/>
@@ -1911,7 +2197,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="6"/>
@@ -1920,7 +2206,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="6"/>
@@ -1929,7 +2215,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="6"/>
@@ -1938,7 +2224,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="6"/>
@@ -1947,7 +2233,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
@@ -1956,7 +2242,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="6"/>
@@ -1965,7 +2251,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="6"/>
@@ -1974,7 +2260,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="6"/>
@@ -1983,7 +2269,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="6"/>
@@ -1992,7 +2278,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="6"/>
@@ -2001,7 +2287,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="6"/>
@@ -2010,7 +2296,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="6"/>
@@ -2019,7 +2305,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="6"/>
@@ -2028,7 +2314,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="6"/>
@@ -2037,7 +2323,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="6"/>
@@ -2046,7 +2332,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="6"/>
@@ -2055,7 +2341,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="6"/>
@@ -2064,7 +2350,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="6"/>
@@ -2073,7 +2359,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="6"/>
@@ -2082,7 +2368,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="6"/>
@@ -2091,7 +2377,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="6"/>
@@ -2100,7 +2386,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="6"/>
@@ -2109,7 +2395,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="6"/>
@@ -2118,7 +2404,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="6"/>
@@ -2127,7 +2413,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="6"/>
@@ -2136,7 +2422,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="6"/>
@@ -2145,7 +2431,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="6"/>
@@ -2154,7 +2440,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="6"/>
@@ -2163,7 +2449,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="6"/>
@@ -2172,7 +2458,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="6"/>
@@ -2181,7 +2467,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="6"/>
@@ -2190,7 +2476,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="6"/>
@@ -2199,7 +2485,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="6"/>
@@ -2208,7 +2494,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="6"/>
@@ -2217,7 +2503,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="6"/>
@@ -2226,7 +2512,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="6"/>
@@ -2235,7 +2521,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="6"/>
@@ -2244,7 +2530,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="6"/>
@@ -2253,7 +2539,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="6"/>
@@ -2262,7 +2548,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="6"/>
@@ -2271,7 +2557,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="6"/>
@@ -2280,7 +2566,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="6"/>
@@ -2289,7 +2575,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="6"/>
@@ -2298,7 +2584,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="6"/>
@@ -2307,7 +2593,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="6"/>
@@ -2316,7 +2602,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="6"/>
@@ -2325,7 +2611,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="6"/>
@@ -2334,7 +2620,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="6"/>
@@ -2343,7 +2629,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="6"/>
@@ -2352,7 +2638,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="6"/>
@@ -2361,7 +2647,7 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="6"/>
@@ -2370,7 +2656,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="6"/>
@@ -2379,7 +2665,7 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="6"/>
@@ -2388,7 +2674,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="6"/>
@@ -2397,7 +2683,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="6"/>
@@ -2406,7 +2692,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="6"/>
@@ -2415,7 +2701,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="6"/>
@@ -2424,7 +2710,7 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="6"/>
@@ -2433,7 +2719,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="6"/>
@@ -2442,7 +2728,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="6"/>
@@ -2451,7 +2737,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="6"/>
@@ -2460,7 +2746,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="6"/>
@@ -2469,7 +2755,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="6"/>
@@ -2478,7 +2764,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="6"/>
@@ -2487,7 +2773,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="6"/>
@@ -2496,7 +2782,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="6"/>
@@ -2505,7 +2791,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="6"/>
@@ -2514,7 +2800,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="6"/>
@@ -2523,7 +2809,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="6"/>
@@ -2532,7 +2818,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="6"/>
@@ -2541,7 +2827,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="6"/>
@@ -2550,7 +2836,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="6"/>
@@ -2559,7 +2845,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="6"/>
@@ -2568,7 +2854,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="6"/>
@@ -2577,7 +2863,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="6"/>
@@ -2586,7 +2872,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="6"/>
@@ -2595,7 +2881,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="6"/>
@@ -2604,7 +2890,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="6"/>
@@ -2613,7 +2899,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="6"/>
@@ -2622,7 +2908,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="6"/>
@@ -2631,7 +2917,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="6"/>
@@ -2640,7 +2926,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="6"/>
@@ -2649,7 +2935,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="6"/>
@@ -2658,7 +2944,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="6"/>
@@ -2667,7 +2953,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="6"/>
@@ -2676,7 +2962,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="6"/>
@@ -2685,7 +2971,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="6"/>
@@ -2694,7 +2980,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="6"/>
@@ -2703,7 +2989,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="6"/>
@@ -2712,7 +2998,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="6"/>
@@ -2721,7 +3007,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="6"/>
@@ -2730,7 +3016,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="6"/>
@@ -2739,7 +3025,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="6"/>
@@ -2748,7 +3034,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="6"/>
@@ -2757,7 +3043,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="6"/>
@@ -2766,7 +3052,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6"/>
@@ -2775,7 +3061,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="6"/>
@@ -2784,7 +3070,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="6"/>
@@ -2793,7 +3079,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="6"/>
@@ -2802,7 +3088,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="6"/>
@@ -2811,7 +3097,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="6"/>
@@ -2820,7 +3106,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="6"/>
@@ -2829,7 +3115,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="6"/>
@@ -2838,7 +3124,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="6"/>
@@ -2847,7 +3133,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="6"/>
@@ -2856,7 +3142,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="6"/>
@@ -2865,7 +3151,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="6"/>
@@ -2874,7 +3160,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="6"/>
@@ -2883,7 +3169,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="6"/>
@@ -2892,7 +3178,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="6"/>
@@ -2901,7 +3187,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="6"/>
@@ -2910,7 +3196,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="6"/>
@@ -2919,7 +3205,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="6"/>
@@ -2928,7 +3214,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="6"/>
@@ -2937,7 +3223,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="6"/>
@@ -2946,7 +3232,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="6"/>
@@ -2955,7 +3241,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="6"/>
@@ -2964,7 +3250,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="6"/>
@@ -2973,7 +3259,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="6"/>
@@ -2982,7 +3268,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="6"/>
@@ -2991,7 +3277,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="6"/>
@@ -3000,7 +3286,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="6"/>
@@ -3009,7 +3295,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="6"/>
@@ -3018,7 +3304,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="6"/>
@@ -3027,7 +3313,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="6"/>
@@ -3036,7 +3322,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="6"/>
@@ -3045,7 +3331,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="6"/>
@@ -3054,7 +3340,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="6"/>
@@ -3063,7 +3349,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="6"/>
@@ -3072,7 +3358,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="6"/>
@@ -3081,7 +3367,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="6"/>
@@ -3090,7 +3376,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="6"/>
@@ -3099,7 +3385,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="6"/>
@@ -3108,7 +3394,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="6"/>
@@ -3117,7 +3403,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="6"/>
@@ -3126,7 +3412,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="6"/>
@@ -3135,7 +3421,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="6"/>
@@ -3144,7 +3430,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="6"/>
@@ -3153,7 +3439,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="6"/>
@@ -3162,7 +3448,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="6"/>
@@ -3171,7 +3457,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="6"/>
@@ -3180,7 +3466,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="6"/>
@@ -3189,7 +3475,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="6"/>
@@ -3198,7 +3484,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="6"/>
@@ -3207,7 +3493,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="6"/>
@@ -3216,7 +3502,7 @@
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="6"/>
@@ -3225,7 +3511,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="6"/>
@@ -3234,7 +3520,7 @@
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="6"/>
@@ -3243,7 +3529,7 @@
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="6"/>
@@ -3252,7 +3538,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="6"/>
@@ -3261,7 +3547,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="6"/>
@@ -3270,7 +3556,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="6"/>
@@ -3279,7 +3565,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="6"/>
@@ -3288,7 +3574,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="6"/>
@@ -3297,7 +3583,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="6"/>
@@ -3306,7 +3592,7 @@
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="6"/>
@@ -3315,7 +3601,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="6"/>
@@ -3324,7 +3610,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="6"/>
@@ -3333,7 +3619,7 @@
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="6"/>
@@ -3342,7 +3628,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="6"/>
@@ -3351,7 +3637,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="6"/>
@@ -3360,7 +3646,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="6"/>
@@ -3369,7 +3655,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="6"/>
@@ -3378,7 +3664,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="6"/>
@@ -3387,7 +3673,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="6"/>
@@ -3396,7 +3682,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="6"/>
@@ -3405,7 +3691,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="6"/>
@@ -3414,7 +3700,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="6"/>
@@ -3423,7 +3709,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="6"/>
@@ -3432,7 +3718,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="6"/>
@@ -3441,7 +3727,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="6"/>
@@ -3450,7 +3736,7 @@
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="6"/>
@@ -3459,7 +3745,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="6"/>
@@ -3468,7 +3754,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="6"/>
@@ -3477,7 +3763,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="6"/>
@@ -3486,7 +3772,7 @@
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="6"/>
@@ -3495,7 +3781,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="6"/>
@@ -3504,7 +3790,7 @@
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="6"/>
@@ -3513,7 +3799,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="6"/>
@@ -3522,7 +3808,7 @@
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="6"/>
@@ -3531,7 +3817,7 @@
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="6"/>
@@ -3540,7 +3826,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="6"/>
@@ -3549,7 +3835,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="6"/>
@@ -3558,7 +3844,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="6"/>
@@ -3567,7 +3853,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="6"/>
@@ -3576,7 +3862,7 @@
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="6"/>
@@ -3585,7 +3871,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="6"/>
@@ -3594,7 +3880,7 @@
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="6"/>
@@ -3603,7 +3889,7 @@
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="6"/>
@@ -3612,7 +3898,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="6"/>
@@ -3621,7 +3907,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="6"/>
@@ -3630,7 +3916,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="6"/>
@@ -3639,7 +3925,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
       <c r="C290" s="6"/>
@@ -3648,7 +3934,7 @@
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
       <c r="C291" s="6"/>
@@ -3657,7 +3943,7 @@
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
       <c r="C292" s="6"/>
@@ -3666,7 +3952,7 @@
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="6"/>
@@ -3675,7 +3961,7 @@
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="6"/>
@@ -3684,7 +3970,7 @@
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="6"/>
@@ -3693,7 +3979,7 @@
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="6"/>
@@ -3702,7 +3988,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="6"/>
@@ -3711,7 +3997,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="6"/>
@@ -3720,7 +4006,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="6"/>
@@ -3729,7 +4015,7 @@
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="6"/>
@@ -3738,7 +4024,7 @@
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="6"/>
@@ -3747,7 +4033,7 @@
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="6"/>
@@ -3756,7 +4042,7 @@
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="6"/>
@@ -3765,7 +4051,7 @@
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="6"/>
@@ -3774,7 +4060,7 @@
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="6"/>
@@ -3783,7 +4069,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="6"/>
@@ -3792,7 +4078,7 @@
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="6"/>
@@ -3801,7 +4087,7 @@
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="6"/>
@@ -3810,7 +4096,7 @@
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="6"/>
@@ -3819,7 +4105,7 @@
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="6"/>
@@ -3828,7 +4114,7 @@
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="6"/>
@@ -3837,7 +4123,7 @@
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="6"/>
@@ -3846,7 +4132,7 @@
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="6"/>
@@ -3855,7 +4141,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="6"/>
@@ -3864,7 +4150,7 @@
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="6"/>
@@ -3873,7 +4159,7 @@
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="6"/>
@@ -3882,7 +4168,7 @@
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="6"/>
@@ -3891,7 +4177,7 @@
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="6"/>
@@ -3900,7 +4186,7 @@
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
       <c r="C319" s="6"/>
@@ -3909,7 +4195,7 @@
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
       <c r="C320" s="6"/>
@@ -3918,7 +4204,7 @@
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
       <c r="C321" s="6"/>
@@ -3927,7 +4213,7 @@
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
       <c r="C322" s="6"/>
@@ -3936,7 +4222,7 @@
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
       <c r="C323" s="6"/>
@@ -3945,7 +4231,7 @@
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
       <c r="C324" s="6"/>
@@ -3954,7 +4240,7 @@
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
       <c r="C325" s="6"/>
@@ -3963,7 +4249,7 @@
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
       <c r="C326" s="6"/>
@@ -3972,7 +4258,7 @@
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
       <c r="C327" s="6"/>
@@ -3981,7 +4267,7 @@
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
       <c r="C328" s="6"/>
@@ -3990,7 +4276,7 @@
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
       <c r="C329" s="6"/>
@@ -3999,7 +4285,7 @@
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
       <c r="C330" s="6"/>
@@ -4008,7 +4294,7 @@
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
       <c r="C331" s="6"/>
@@ -4017,7 +4303,7 @@
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
       <c r="C332" s="6"/>
@@ -4026,7 +4312,7 @@
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
       <c r="C333" s="6"/>
@@ -4035,7 +4321,7 @@
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
       <c r="C334" s="6"/>
@@ -4044,7 +4330,7 @@
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
       <c r="C335" s="6"/>
@@ -4053,7 +4339,7 @@
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
       <c r="C336" s="6"/>
@@ -4062,7 +4348,7 @@
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
       <c r="C337" s="6"/>
@@ -4071,7 +4357,7 @@
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
       <c r="C338" s="6"/>
@@ -4080,7 +4366,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
       <c r="C339" s="6"/>
@@ -4089,7 +4375,7 @@
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
       <c r="C340" s="6"/>
@@ -4098,7 +4384,7 @@
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="6"/>
@@ -4107,7 +4393,7 @@
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="6"/>
@@ -4116,7 +4402,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="6"/>
@@ -4125,7 +4411,7 @@
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="6"/>
@@ -4134,7 +4420,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="6"/>
@@ -4143,7 +4429,7 @@
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="6"/>
@@ -4152,7 +4438,7 @@
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="6"/>
@@ -4161,7 +4447,7 @@
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="6"/>
@@ -4170,7 +4456,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="6"/>
@@ -4179,7 +4465,7 @@
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="6"/>
@@ -4188,7 +4474,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="6"/>
@@ -4197,7 +4483,7 @@
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="6"/>
@@ -4206,7 +4492,7 @@
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="6"/>
@@ -4215,7 +4501,7 @@
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="6"/>
@@ -4224,7 +4510,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="5"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="6"/>
@@ -4233,7 +4519,7 @@
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="6"/>
@@ -4242,7 +4528,7 @@
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="6"/>
@@ -4251,7 +4537,7 @@
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="6"/>
@@ -4260,7 +4546,7 @@
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="6"/>
@@ -4269,7 +4555,7 @@
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="6"/>
@@ -4278,7 +4564,7 @@
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="6"/>
@@ -4287,7 +4573,7 @@
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="6"/>
@@ -4296,7 +4582,7 @@
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="6"/>
@@ -4305,7 +4591,7 @@
       <c r="F363" s="5"/>
       <c r="G363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="6"/>
@@ -4314,7 +4600,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="6"/>
@@ -4323,7 +4609,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="6"/>
@@ -4332,7 +4618,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="6"/>
@@ -4341,7 +4627,7 @@
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="6"/>
@@ -4350,7 +4636,7 @@
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="6"/>
@@ -4359,7 +4645,7 @@
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="6"/>
@@ -4368,7 +4654,7 @@
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
       <c r="C371" s="6"/>
@@ -4377,7 +4663,7 @@
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="6"/>
@@ -4386,7 +4672,7 @@
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="6"/>
@@ -4395,7 +4681,7 @@
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="6"/>
@@ -4404,7 +4690,7 @@
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
       <c r="C375" s="6"/>
@@ -4413,7 +4699,7 @@
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="6"/>
@@ -4422,7 +4708,7 @@
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
       <c r="C377" s="6"/>
@@ -4431,7 +4717,7 @@
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="6"/>
@@ -4440,7 +4726,7 @@
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
       <c r="C379" s="6"/>
@@ -4449,7 +4735,7 @@
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
       <c r="C380" s="6"/>
@@ -4458,7 +4744,7 @@
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
       <c r="C381" s="6"/>
@@ -4467,7 +4753,7 @@
       <c r="F381" s="5"/>
       <c r="G381" s="5"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
       <c r="C382" s="6"/>
@@ -4476,7 +4762,7 @@
       <c r="F382" s="5"/>
       <c r="G382" s="5"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
       <c r="C383" s="6"/>
@@ -4485,7 +4771,7 @@
       <c r="F383" s="5"/>
       <c r="G383" s="5"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
       <c r="C384" s="6"/>
@@ -4494,7 +4780,7 @@
       <c r="F384" s="5"/>
       <c r="G384" s="5"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
       <c r="C385" s="6"/>
@@ -4503,7 +4789,7 @@
       <c r="F385" s="5"/>
       <c r="G385" s="5"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
       <c r="C386" s="6"/>
@@ -4512,7 +4798,7 @@
       <c r="F386" s="5"/>
       <c r="G386" s="5"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
       <c r="C387" s="6"/>
@@ -4521,7 +4807,7 @@
       <c r="F387" s="5"/>
       <c r="G387" s="5"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
       <c r="C388" s="6"/>
@@ -4530,7 +4816,7 @@
       <c r="F388" s="5"/>
       <c r="G388" s="5"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
       <c r="C389" s="6"/>
@@ -4539,7 +4825,7 @@
       <c r="F389" s="5"/>
       <c r="G389" s="5"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
       <c r="C390" s="6"/>
@@ -4548,7 +4834,7 @@
       <c r="F390" s="5"/>
       <c r="G390" s="5"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
       <c r="C391" s="6"/>
@@ -4557,7 +4843,7 @@
       <c r="F391" s="5"/>
       <c r="G391" s="5"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
       <c r="C392" s="6"/>
@@ -4566,7 +4852,7 @@
       <c r="F392" s="5"/>
       <c r="G392" s="5"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
       <c r="C393" s="6"/>
@@ -4575,7 +4861,7 @@
       <c r="F393" s="5"/>
       <c r="G393" s="5"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
       <c r="C394" s="6"/>
@@ -4584,7 +4870,7 @@
       <c r="F394" s="5"/>
       <c r="G394" s="5"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
       <c r="C395" s="6"/>
@@ -4593,7 +4879,7 @@
       <c r="F395" s="5"/>
       <c r="G395" s="5"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
       <c r="C396" s="6"/>
@@ -4602,7 +4888,7 @@
       <c r="F396" s="5"/>
       <c r="G396" s="5"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
       <c r="C397" s="6"/>
@@ -4611,7 +4897,7 @@
       <c r="F397" s="5"/>
       <c r="G397" s="5"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
       <c r="C398" s="6"/>
@@ -4620,7 +4906,7 @@
       <c r="F398" s="5"/>
       <c r="G398" s="5"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
       <c r="C399" s="6"/>
@@ -4629,7 +4915,7 @@
       <c r="F399" s="5"/>
       <c r="G399" s="5"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
       <c r="C400" s="6"/>
@@ -4638,7 +4924,7 @@
       <c r="F400" s="5"/>
       <c r="G400" s="5"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
       <c r="C401" s="6"/>
@@ -4647,7 +4933,7 @@
       <c r="F401" s="5"/>
       <c r="G401" s="5"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
       <c r="C402" s="6"/>
@@ -4656,7 +4942,7 @@
       <c r="F402" s="5"/>
       <c r="G402" s="5"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
       <c r="C403" s="6"/>
@@ -4665,7 +4951,7 @@
       <c r="F403" s="5"/>
       <c r="G403" s="5"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
       <c r="C404" s="6"/>
@@ -4674,7 +4960,7 @@
       <c r="F404" s="5"/>
       <c r="G404" s="5"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
       <c r="C405" s="6"/>
@@ -4683,7 +4969,7 @@
       <c r="F405" s="5"/>
       <c r="G405" s="5"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
       <c r="C406" s="6"/>
@@ -4692,7 +4978,7 @@
       <c r="F406" s="5"/>
       <c r="G406" s="5"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
       <c r="C407" s="6"/>
@@ -4701,7 +4987,7 @@
       <c r="F407" s="5"/>
       <c r="G407" s="5"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
       <c r="C408" s="6"/>
@@ -4710,7 +4996,7 @@
       <c r="F408" s="5"/>
       <c r="G408" s="5"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
       <c r="C409" s="6"/>
@@ -4719,7 +5005,7 @@
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
       <c r="C410" s="6"/>
@@ -4728,7 +5014,7 @@
       <c r="F410" s="5"/>
       <c r="G410" s="5"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
       <c r="C411" s="6"/>
@@ -4737,7 +5023,7 @@
       <c r="F411" s="5"/>
       <c r="G411" s="5"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
       <c r="C412" s="6"/>
@@ -4746,7 +5032,7 @@
       <c r="F412" s="5"/>
       <c r="G412" s="5"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
       <c r="C413" s="6"/>
@@ -4755,7 +5041,7 @@
       <c r="F413" s="5"/>
       <c r="G413" s="5"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
       <c r="C414" s="6"/>
@@ -4764,7 +5050,7 @@
       <c r="F414" s="5"/>
       <c r="G414" s="5"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
       <c r="C415" s="6"/>
@@ -4773,7 +5059,7 @@
       <c r="F415" s="5"/>
       <c r="G415" s="5"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
       <c r="C416" s="6"/>
@@ -4782,7 +5068,7 @@
       <c r="F416" s="5"/>
       <c r="G416" s="5"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
       <c r="C417" s="6"/>
@@ -4791,7 +5077,7 @@
       <c r="F417" s="5"/>
       <c r="G417" s="5"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
       <c r="C418" s="6"/>
@@ -4800,7 +5086,7 @@
       <c r="F418" s="5"/>
       <c r="G418" s="5"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
       <c r="C419" s="6"/>
@@ -4809,7 +5095,7 @@
       <c r="F419" s="5"/>
       <c r="G419" s="5"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
       <c r="C420" s="6"/>
@@ -4818,7 +5104,7 @@
       <c r="F420" s="5"/>
       <c r="G420" s="5"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
       <c r="C421" s="6"/>
@@ -4827,7 +5113,7 @@
       <c r="F421" s="5"/>
       <c r="G421" s="5"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
       <c r="C422" s="6"/>
@@ -4836,7 +5122,7 @@
       <c r="F422" s="5"/>
       <c r="G422" s="5"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
       <c r="C423" s="6"/>
@@ -4845,7 +5131,7 @@
       <c r="F423" s="5"/>
       <c r="G423" s="5"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
       <c r="C424" s="6"/>
@@ -4854,7 +5140,7 @@
       <c r="F424" s="5"/>
       <c r="G424" s="5"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
       <c r="C425" s="6"/>
@@ -4863,7 +5149,7 @@
       <c r="F425" s="5"/>
       <c r="G425" s="5"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
       <c r="C426" s="6"/>
@@ -4872,7 +5158,7 @@
       <c r="F426" s="5"/>
       <c r="G426" s="5"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
       <c r="C427" s="6"/>
@@ -4881,7 +5167,7 @@
       <c r="F427" s="5"/>
       <c r="G427" s="5"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
       <c r="C428" s="6"/>
@@ -4890,7 +5176,7 @@
       <c r="F428" s="5"/>
       <c r="G428" s="5"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
       <c r="C429" s="6"/>
@@ -4899,7 +5185,7 @@
       <c r="F429" s="5"/>
       <c r="G429" s="5"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
       <c r="C430" s="6"/>
@@ -4908,7 +5194,7 @@
       <c r="F430" s="5"/>
       <c r="G430" s="5"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
       <c r="C431" s="6"/>
@@ -4917,7 +5203,7 @@
       <c r="F431" s="5"/>
       <c r="G431" s="5"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
       <c r="C432" s="6"/>
@@ -4926,7 +5212,7 @@
       <c r="F432" s="5"/>
       <c r="G432" s="5"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
       <c r="C433" s="6"/>
@@ -4935,7 +5221,7 @@
       <c r="F433" s="5"/>
       <c r="G433" s="5"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
       <c r="C434" s="6"/>
@@ -4944,7 +5230,7 @@
       <c r="F434" s="5"/>
       <c r="G434" s="5"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
       <c r="C435" s="6"/>
@@ -4953,7 +5239,7 @@
       <c r="F435" s="5"/>
       <c r="G435" s="5"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
       <c r="C436" s="6"/>
@@ -4962,7 +5248,7 @@
       <c r="F436" s="5"/>
       <c r="G436" s="5"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
       <c r="C437" s="6"/>
@@ -4971,7 +5257,7 @@
       <c r="F437" s="5"/>
       <c r="G437" s="5"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
       <c r="C438" s="6"/>
@@ -4980,7 +5266,7 @@
       <c r="F438" s="5"/>
       <c r="G438" s="5"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
       <c r="C439" s="6"/>
@@ -4989,7 +5275,7 @@
       <c r="F439" s="5"/>
       <c r="G439" s="5"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
       <c r="C440" s="6"/>
@@ -4998,7 +5284,7 @@
       <c r="F440" s="5"/>
       <c r="G440" s="5"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
       <c r="C441" s="6"/>
@@ -5007,7 +5293,7 @@
       <c r="F441" s="5"/>
       <c r="G441" s="5"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
       <c r="C442" s="6"/>
@@ -5016,7 +5302,7 @@
       <c r="F442" s="5"/>
       <c r="G442" s="5"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
       <c r="C443" s="6"/>
@@ -5025,7 +5311,7 @@
       <c r="F443" s="5"/>
       <c r="G443" s="5"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
       <c r="C444" s="6"/>
@@ -5034,7 +5320,7 @@
       <c r="F444" s="5"/>
       <c r="G444" s="5"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
       <c r="C445" s="6"/>
@@ -5043,7 +5329,7 @@
       <c r="F445" s="5"/>
       <c r="G445" s="5"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
       <c r="C446" s="6"/>
@@ -5052,7 +5338,7 @@
       <c r="F446" s="5"/>
       <c r="G446" s="5"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
       <c r="C447" s="6"/>
@@ -5061,7 +5347,7 @@
       <c r="F447" s="5"/>
       <c r="G447" s="5"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
       <c r="C448" s="6"/>
@@ -5070,7 +5356,7 @@
       <c r="F448" s="5"/>
       <c r="G448" s="5"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
       <c r="C449" s="6"/>
@@ -5079,7 +5365,7 @@
       <c r="F449" s="5"/>
       <c r="G449" s="5"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
       <c r="C450" s="6"/>
@@ -5088,7 +5374,7 @@
       <c r="F450" s="5"/>
       <c r="G450" s="5"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
       <c r="C451" s="6"/>
@@ -5097,7 +5383,7 @@
       <c r="F451" s="5"/>
       <c r="G451" s="5"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
       <c r="C452" s="6"/>
@@ -5106,7 +5392,7 @@
       <c r="F452" s="5"/>
       <c r="G452" s="5"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
       <c r="C453" s="6"/>
@@ -5115,7 +5401,7 @@
       <c r="F453" s="5"/>
       <c r="G453" s="5"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
       <c r="C454" s="6"/>
@@ -5124,7 +5410,7 @@
       <c r="F454" s="5"/>
       <c r="G454" s="5"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
       <c r="C455" s="6"/>
@@ -5133,7 +5419,7 @@
       <c r="F455" s="5"/>
       <c r="G455" s="5"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
       <c r="C456" s="6"/>
@@ -5142,7 +5428,7 @@
       <c r="F456" s="5"/>
       <c r="G456" s="5"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
       <c r="C457" s="6"/>
@@ -5151,7 +5437,7 @@
       <c r="F457" s="5"/>
       <c r="G457" s="5"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
       <c r="C458" s="6"/>
@@ -5160,7 +5446,7 @@
       <c r="F458" s="5"/>
       <c r="G458" s="5"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
       <c r="C459" s="6"/>
@@ -5169,7 +5455,7 @@
       <c r="F459" s="5"/>
       <c r="G459" s="5"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
       <c r="C460" s="6"/>
@@ -5178,7 +5464,7 @@
       <c r="F460" s="5"/>
       <c r="G460" s="5"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
       <c r="C461" s="6"/>
@@ -5187,7 +5473,7 @@
       <c r="F461" s="5"/>
       <c r="G461" s="5"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
       <c r="C462" s="6"/>
@@ -5196,7 +5482,7 @@
       <c r="F462" s="5"/>
       <c r="G462" s="5"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
       <c r="C463" s="6"/>
@@ -5205,7 +5491,7 @@
       <c r="F463" s="5"/>
       <c r="G463" s="5"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
       <c r="C464" s="6"/>
@@ -5214,7 +5500,7 @@
       <c r="F464" s="5"/>
       <c r="G464" s="5"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
       <c r="C465" s="6"/>
@@ -5223,7 +5509,7 @@
       <c r="F465" s="5"/>
       <c r="G465" s="5"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
       <c r="C466" s="6"/>
@@ -5232,7 +5518,7 @@
       <c r="F466" s="5"/>
       <c r="G466" s="5"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
       <c r="C467" s="6"/>
@@ -5241,7 +5527,7 @@
       <c r="F467" s="5"/>
       <c r="G467" s="5"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
       <c r="C468" s="6"/>
@@ -5250,7 +5536,7 @@
       <c r="F468" s="5"/>
       <c r="G468" s="5"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
       <c r="C469" s="6"/>
@@ -5259,7 +5545,7 @@
       <c r="F469" s="5"/>
       <c r="G469" s="5"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
       <c r="C470" s="6"/>
@@ -5268,7 +5554,7 @@
       <c r="F470" s="5"/>
       <c r="G470" s="5"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
       <c r="C471" s="6"/>
@@ -5277,7 +5563,7 @@
       <c r="F471" s="5"/>
       <c r="G471" s="5"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
       <c r="C472" s="6"/>
@@ -5286,7 +5572,7 @@
       <c r="F472" s="5"/>
       <c r="G472" s="5"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
       <c r="C473" s="6"/>
@@ -5295,7 +5581,7 @@
       <c r="F473" s="5"/>
       <c r="G473" s="5"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
       <c r="C474" s="6"/>
@@ -5304,7 +5590,7 @@
       <c r="F474" s="5"/>
       <c r="G474" s="5"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
       <c r="C475" s="6"/>
@@ -5313,7 +5599,7 @@
       <c r="F475" s="5"/>
       <c r="G475" s="5"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
       <c r="C476" s="6"/>
@@ -5322,7 +5608,7 @@
       <c r="F476" s="5"/>
       <c r="G476" s="5"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
       <c r="C477" s="6"/>
@@ -5331,7 +5617,7 @@
       <c r="F477" s="5"/>
       <c r="G477" s="5"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
       <c r="C478" s="6"/>
@@ -5340,7 +5626,7 @@
       <c r="F478" s="5"/>
       <c r="G478" s="5"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
       <c r="C479" s="6"/>
@@ -5349,7 +5635,7 @@
       <c r="F479" s="5"/>
       <c r="G479" s="5"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
       <c r="C480" s="6"/>
@@ -5358,7 +5644,7 @@
       <c r="F480" s="5"/>
       <c r="G480" s="5"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
       <c r="C481" s="6"/>
@@ -5367,7 +5653,7 @@
       <c r="F481" s="5"/>
       <c r="G481" s="5"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
       <c r="C482" s="6"/>
@@ -5376,7 +5662,7 @@
       <c r="F482" s="5"/>
       <c r="G482" s="5"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
       <c r="C483" s="6"/>
@@ -5385,7 +5671,7 @@
       <c r="F483" s="5"/>
       <c r="G483" s="5"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
       <c r="C484" s="6"/>
@@ -5394,7 +5680,7 @@
       <c r="F484" s="5"/>
       <c r="G484" s="5"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
       <c r="C485" s="6"/>
@@ -5403,7 +5689,7 @@
       <c r="F485" s="5"/>
       <c r="G485" s="5"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
       <c r="C486" s="6"/>
@@ -5412,7 +5698,7 @@
       <c r="F486" s="5"/>
       <c r="G486" s="5"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
       <c r="C487" s="6"/>
@@ -5421,7 +5707,7 @@
       <c r="F487" s="5"/>
       <c r="G487" s="5"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
       <c r="C488" s="6"/>
@@ -5430,7 +5716,7 @@
       <c r="F488" s="5"/>
       <c r="G488" s="5"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
       <c r="C489" s="6"/>
@@ -5439,7 +5725,7 @@
       <c r="F489" s="5"/>
       <c r="G489" s="5"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
       <c r="C490" s="6"/>
@@ -5448,7 +5734,7 @@
       <c r="F490" s="5"/>
       <c r="G490" s="5"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
       <c r="C491" s="6"/>
@@ -5457,7 +5743,7 @@
       <c r="F491" s="5"/>
       <c r="G491" s="5"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
       <c r="C492" s="6"/>
@@ -5466,7 +5752,7 @@
       <c r="F492" s="5"/>
       <c r="G492" s="5"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
       <c r="C493" s="6"/>
@@ -5475,7 +5761,7 @@
       <c r="F493" s="5"/>
       <c r="G493" s="5"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
       <c r="C494" s="6"/>
@@ -5484,7 +5770,7 @@
       <c r="F494" s="5"/>
       <c r="G494" s="5"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
       <c r="C495" s="6"/>
@@ -5493,7 +5779,7 @@
       <c r="F495" s="5"/>
       <c r="G495" s="5"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
       <c r="C496" s="6"/>
@@ -5502,7 +5788,7 @@
       <c r="F496" s="5"/>
       <c r="G496" s="5"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
       <c r="C497" s="6"/>
@@ -5511,7 +5797,7 @@
       <c r="F497" s="5"/>
       <c r="G497" s="5"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
       <c r="C498" s="6"/>
@@ -5520,7 +5806,7 @@
       <c r="F498" s="5"/>
       <c r="G498" s="5"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
       <c r="C499" s="6"/>
@@ -5529,7 +5815,7 @@
       <c r="F499" s="5"/>
       <c r="G499" s="5"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
       <c r="C500" s="6"/>
@@ -5538,9 +5824,54 @@
       <c r="F500" s="5"/>
       <c r="G500" s="5"/>
     </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A501" s="1"/>
+      <c r="B501" s="2"/>
+      <c r="C501" s="6"/>
+      <c r="D501" s="6"/>
+      <c r="E501" s="5"/>
+      <c r="F501" s="5"/>
+      <c r="G501" s="5"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A502" s="1"/>
+      <c r="B502" s="2"/>
+      <c r="C502" s="6"/>
+      <c r="D502" s="6"/>
+      <c r="E502" s="5"/>
+      <c r="F502" s="5"/>
+      <c r="G502" s="5"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A503" s="1"/>
+      <c r="B503" s="2"/>
+      <c r="C503" s="6"/>
+      <c r="D503" s="6"/>
+      <c r="E503" s="5"/>
+      <c r="F503" s="5"/>
+      <c r="G503" s="5"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A504" s="1"/>
+      <c r="B504" s="2"/>
+      <c r="C504" s="6"/>
+      <c r="D504" s="6"/>
+      <c r="E504" s="5"/>
+      <c r="F504" s="5"/>
+      <c r="G504" s="5"/>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A505" s="1"/>
+      <c r="B505" s="2"/>
+      <c r="C505" s="6"/>
+      <c r="D505" s="6"/>
+      <c r="E505" s="5"/>
+      <c r="F505" s="5"/>
+      <c r="G505" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5554,9 +5885,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col min="1" max="1025" width="8.6640625"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5573,9 +5904,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col min="1" max="1025" width="8.6640625"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>RuleSet</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>is buckslip process?               false is by default.</t>
+  </si>
+  <si>
+    <t>Buckslip Correspondence</t>
+  </si>
+  <si>
+    <t>request_document</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1047,7 @@
   <dimension ref="A1:K505"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,16 +1532,32 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="5">
+        <v>50</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="27"/>
+      <c r="K25" s="27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>RuleSet</t>
   </si>
@@ -346,12 +346,6 @@
   </si>
   <si>
     <t>is buckslip process?               false is by default.</t>
-  </si>
-  <si>
-    <t>Buckslip Correspondence</t>
-  </si>
-  <si>
-    <t>request_document</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1041,7 @@
   <dimension ref="A1:K505"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,32 +1526,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="5">
-        <v>50</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="27" t="s">
-        <v>5</v>
-      </c>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko.stojanoski\.arkcase\acm\rules\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,158 +26,158 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">ruleName</t>
+          <t>ruleName</t>
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">fileType</t>
+          <t>fileType</t>
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">startProcess</t>
+          <t>startProcess</t>
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">processName</t>
+          <t>processName</t>
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">priority</t>
+          <t>priority</t>
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0">
+    <comment ref="J16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0">
+    <comment ref="K16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
@@ -182,39 +186,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Workflow Rules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.EvaluationContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.ExpressionParser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.spel.standard.SpelExpressionParser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.spel.support.StandardEvaluationContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.armedia.acm.plugins.ecm.workflow.EcmFileWorkflowConfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function Boolean evalSpring(String expression, Object obj)
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+  <si>
+    <t>RuleSet</t>
+  </si>
+  <si>
+    <t>Form Workflow Rules</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.EvaluationContext</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.Expression</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.ExpressionParser</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.spel.standard.SpelExpressionParser</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.spel.support.StandardEvaluationContext</t>
+  </si>
+  <si>
+    <t>com.armedia.acm.plugins.ecm.workflow.EcmFileWorkflowConfiguration</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>function Boolean evalSpring(String expression, Object obj)
 {
     ExpressionParser ep = new SpelExpressionParser();
     Expression exp = ep.parseExpression(expression);
@@ -224,171 +228,158 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Sequential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleTable Form Workflow Rules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file: EcmFileWorkflowConfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecmFile.fileType.equalsIgnoreCase("$param") || "$param".equals("*")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setStartProcess($param);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setProcessName("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setTaskPriority($param);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setTaskDueDateExpression("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setTaskName("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setApprovers("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setRequestType("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setBuckslipProcess($param);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If different rules apply to the same document, the last rule wins.  Be sure to put default rules first, and specific rules later.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start a Workflow Process? (true/false)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of business process to start (must be an Activiti process name)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority of user tasks (must be a number between 0 and 100; higher number is higher priority)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due date of user tasks.  Must be a valid ISO801 duration expression.  Examples: P3D = three days from now; P3H = 3 hours from now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comma-separated list of user ids; these users will be the reviewers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business-meaningful process name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is buckslip process?               false is by default.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Workflow (no other rules match)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close Complaint Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close_complaint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acmDocumentWorkflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report of Investigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckslip Complaint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complaint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArkCaseBuckslipProcess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ann-acm,ian-acm,samuel-acm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change Case Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change_case_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckslip Case File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timesheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timesheet</t>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>RuleTable Form Workflow Rules</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>$file: EcmFileWorkflowConfiguration</t>
+  </si>
+  <si>
+    <t>ecmFile.fileType.equalsIgnoreCase("$param") || "$param".equals("*")</t>
+  </si>
+  <si>
+    <t>$file.setStartProcess($param);</t>
+  </si>
+  <si>
+    <t>$file.setProcessName("$param");</t>
+  </si>
+  <si>
+    <t>$file.setTaskPriority($param);</t>
+  </si>
+  <si>
+    <t>$file.setTaskDueDateExpression("$param");</t>
+  </si>
+  <si>
+    <t>$file.setTaskName("$param");</t>
+  </si>
+  <si>
+    <t>$file.setApprovers("$param");</t>
+  </si>
+  <si>
+    <t>$file.setRequestType("$param");</t>
+  </si>
+  <si>
+    <t>$file.setBuckslipProcess($param);</t>
+  </si>
+  <si>
+    <t>If different rules apply to the same document, the last rule wins.  Be sure to put default rules first, and specific rules later.</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>File Type</t>
+  </si>
+  <si>
+    <t>Start a Workflow Process? (true/false)</t>
+  </si>
+  <si>
+    <t>Name of business process to start (must be an Activiti process name)</t>
+  </si>
+  <si>
+    <t>Priority of user tasks (must be a number between 0 and 100; higher number is higher priority)</t>
+  </si>
+  <si>
+    <t>Due date of user tasks.  Must be a valid ISO801 duration expression.  Examples: P3D = three days from now; P3H = 3 hours from now.</t>
+  </si>
+  <si>
+    <t>Task name</t>
+  </si>
+  <si>
+    <t>Comma-separated list of user ids; these users will be the reviewers.</t>
+  </si>
+  <si>
+    <t>Business-meaningful process name</t>
+  </si>
+  <si>
+    <t>is buckslip process?               false is by default.</t>
+  </si>
+  <si>
+    <t>Default Workflow (no other rules match)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Close Complaint Request</t>
+  </si>
+  <si>
+    <t>close_complaint</t>
+  </si>
+  <si>
+    <t>acmDocumentWorkflow</t>
+  </si>
+  <si>
+    <t>P3D</t>
+  </si>
+  <si>
+    <t>Report of Investigation</t>
+  </si>
+  <si>
+    <t>roi</t>
+  </si>
+  <si>
+    <t>Buckslip Complaint</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>ArkCaseBuckslipProcess</t>
+  </si>
+  <si>
+    <t>ann-acm,ian-acm,samuel-acm</t>
+  </si>
+  <si>
+    <t>Change Case Status</t>
+  </si>
+  <si>
+    <t>change_case_status</t>
+  </si>
+  <si>
+    <t>Buckslip Case File</t>
+  </si>
+  <si>
+    <t>case_file</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>timesheet</t>
+  </si>
+  <si>
+    <t>Review/Approve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -398,7 +389,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -457,230 +448,233 @@
     </fill>
   </fills>
   <borders count="12">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -739,40 +733,845 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74DE9DE-A24D-4577-85B8-F8C177B288AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C273E6C-EFCF-48C1-9394-CD92377E5CBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E494776F-4F28-4EC7-962B-7C5AB088CD1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C157D49C-D06F-47EF-874E-83044A6149BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D743BF88-1D1C-499C-80E7-BB494604D77C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9858986D-2342-440F-BD72-E3F1305129C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5DCEBD-A24C-4BD3-9C90-8DA20DB3AB9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E2FFF6-1434-4669-8C5E-D4305AE779DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDD96ED-EEFE-4647-AB7B-ACF37FE2E120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F32D8B-61B8-4589-89E6-C7423ABC4239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -781,7 +1580,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -794,7 +1593,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -807,7 +1606,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
@@ -820,7 +1619,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
@@ -833,7 +1632,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
@@ -846,7 +1645,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
@@ -859,7 +1658,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
@@ -872,7 +1671,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
@@ -885,7 +1684,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
@@ -898,7 +1697,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -907,7 +1706,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
@@ -922,7 +1721,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
@@ -953,7 +1752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7" t="s">
@@ -968,7 +1767,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="13" t="s">
@@ -999,7 +1798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
         <v>37</v>
@@ -1053,7 +1852,7 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
         <v>40</v>
@@ -1067,7 +1866,7 @@
       <c r="E18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="23" t="n">
+      <c r="F18" s="23">
         <v>50</v>
       </c>
       <c r="G18" s="23" t="s">
@@ -1078,7 +1877,7 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
@@ -1092,7 +1891,7 @@
       <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="23">
         <v>50</v>
       </c>
       <c r="G19" s="23" t="s">
@@ -1103,7 +1902,7 @@
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="20" t="s">
         <v>46</v>
@@ -1117,7 +1916,7 @@
       <c r="E20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="23">
         <v>50</v>
       </c>
       <c r="G20" s="23" t="s">
@@ -1132,7 +1931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
         <v>50</v>
@@ -1146,7 +1945,7 @@
       <c r="E21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="23">
         <v>50</v>
       </c>
       <c r="G21" s="23" t="s">
@@ -1157,7 +1956,7 @@
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>52</v>
@@ -1171,13 +1970,15 @@
       <c r="E22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="23">
         <v>50</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="I22" s="23" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
         <v>54</v>
@@ -1200,7 +2001,7 @@
       <c r="E23" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="23">
         <v>50</v>
       </c>
       <c r="G23" s="23" t="s">
@@ -1211,7 +2012,7 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
         <v>54</v>
@@ -1225,7 +2026,7 @@
       <c r="E24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>50</v>
       </c>
       <c r="G24" s="23" t="s">
@@ -1236,7 +2037,7 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="24"/>
@@ -1249,7 +2050,7 @@
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="24"/>
@@ -1262,7 +2063,7 @@
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="24"/>
@@ -1275,7 +2076,7 @@
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="24"/>
@@ -1289,67 +2090,47 @@
       <c r="K28" s="25"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -363,7 +363,7 @@
     <t>timesheet</t>
   </si>
   <si>
-    <t>Review/Approve</t>
+    <t>Review and Approve</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1551,7 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrijana.maneva\.arkcase\acm\rules\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,158 +26,158 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">ruleName</t>
+          <t>ruleName</t>
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">fileType</t>
+          <t>fileType</t>
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">startProcess</t>
+          <t>startProcess</t>
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">processName</t>
+          <t>processName</t>
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">priority</t>
+          <t>priority</t>
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0">
+    <comment ref="J16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0">
+    <comment ref="K16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
@@ -182,39 +186,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Workflow Rules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.EvaluationContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.ExpressionParser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.spel.standard.SpelExpressionParser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.spel.support.StandardEvaluationContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.armedia.acm.plugins.ecm.workflow.EcmFileWorkflowConfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function Boolean evalSpring(String expression, Object obj)
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+  <si>
+    <t>RuleSet</t>
+  </si>
+  <si>
+    <t>Form Workflow Rules</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.EvaluationContext</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.Expression</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.ExpressionParser</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.spel.standard.SpelExpressionParser</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.spel.support.StandardEvaluationContext</t>
+  </si>
+  <si>
+    <t>com.armedia.acm.plugins.ecm.workflow.EcmFileWorkflowConfiguration</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>function Boolean evalSpring(String expression, Object obj)
 {
     ExpressionParser ep = new SpelExpressionParser();
     Expression exp = ep.parseExpression(expression);
@@ -224,171 +228,161 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Sequential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleTable Form Workflow Rules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file: EcmFileWorkflowConfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecmFile.fileType.equalsIgnoreCase("$param") || "$param".equals("*")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setStartProcess($param);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setProcessName("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setTaskPriority($param);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setTaskDueDateExpression("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setTaskName("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setApprovers("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setRequestType("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setBuckslipProcess($param);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If different rules apply to the same document, the last rule wins.  Be sure to put default rules first, and specific rules later.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start a Workflow Process? (true/false)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of business process to start (must be an Activiti process name)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority of user tasks (must be a number between 0 and 100; higher number is higher priority)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due date of user tasks.  Must be a valid ISO801 duration expression.  Examples: P3D = three days from now; P3H = 3 hours from now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comma-separated list of user ids; these users will be the reviewers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business-meaningful process name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is buckslip process?               false is by default.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Workflow (no other rules match)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close Complaint Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close_complaint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acmDocumentWorkflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report of Investigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckslip Complaint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complaint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArkCaseBuckslipProcess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ann-acm,ian-acm,samuel-acm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change Case Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change_case_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckslip Case File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timesheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timesheet</t>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>RuleTable Form Workflow Rules</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>$file: EcmFileWorkflowConfiguration</t>
+  </si>
+  <si>
+    <t>ecmFile.fileType.equalsIgnoreCase("$param") || "$param".equals("*")</t>
+  </si>
+  <si>
+    <t>$file.setStartProcess($param);</t>
+  </si>
+  <si>
+    <t>$file.setProcessName("$param");</t>
+  </si>
+  <si>
+    <t>$file.setTaskPriority($param);</t>
+  </si>
+  <si>
+    <t>$file.setTaskDueDateExpression("$param");</t>
+  </si>
+  <si>
+    <t>$file.setTaskName("$param");</t>
+  </si>
+  <si>
+    <t>$file.setApprovers("$param");</t>
+  </si>
+  <si>
+    <t>$file.setRequestType("$param");</t>
+  </si>
+  <si>
+    <t>$file.setBuckslipProcess($param);</t>
+  </si>
+  <si>
+    <t>If different rules apply to the same document, the last rule wins.  Be sure to put default rules first, and specific rules later.</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>File Type</t>
+  </si>
+  <si>
+    <t>Start a Workflow Process? (true/false)</t>
+  </si>
+  <si>
+    <t>Name of business process to start (must be an Activiti process name)</t>
+  </si>
+  <si>
+    <t>Priority of user tasks (must be a number between 0 and 100; higher number is higher priority)</t>
+  </si>
+  <si>
+    <t>Due date of user tasks.  Must be a valid ISO801 duration expression.  Examples: P3D = three days from now; P3H = 3 hours from now.</t>
+  </si>
+  <si>
+    <t>Task name</t>
+  </si>
+  <si>
+    <t>Comma-separated list of user ids; these users will be the reviewers.</t>
+  </si>
+  <si>
+    <t>Business-meaningful process name</t>
+  </si>
+  <si>
+    <t>is buckslip process?               false is by default.</t>
+  </si>
+  <si>
+    <t>Default Workflow (no other rules match)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Close Complaint Request</t>
+  </si>
+  <si>
+    <t>close_complaint</t>
+  </si>
+  <si>
+    <t>acmDocumentWorkflow</t>
+  </si>
+  <si>
+    <t>P3D</t>
+  </si>
+  <si>
+    <t>Report of Investigation</t>
+  </si>
+  <si>
+    <t>roi</t>
+  </si>
+  <si>
+    <t>Buckslip Complaint</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>ArkCaseBuckslipProcess</t>
+  </si>
+  <si>
+    <t>ann-acm,ian-acm,samuel-acm</t>
+  </si>
+  <si>
+    <t>Change Case Status</t>
+  </si>
+  <si>
+    <t>change_case_status</t>
+  </si>
+  <si>
+    <t>Buckslip Case File</t>
+  </si>
+  <si>
+    <t>case_file</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>timesheet</t>
+  </si>
+  <si>
+    <t>Costsheet</t>
+  </si>
+  <si>
+    <t>costsheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -398,7 +392,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -457,230 +451,258 @@
     </fill>
   </fills>
   <borders count="12">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -739,40 +761,845 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642187AF-1973-44E5-B733-307B966B60C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED7096E-C38A-47D0-8D03-2DC9249B0175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A2B0A3-68EB-4955-B63A-FB9A9C9CA4A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C982D9-5396-4435-989B-41FCD83359CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FE0688-3382-4EA0-8928-FA0FE72A3886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD57464-C571-43B0-B6D2-49B3DD939A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF81639-3F66-4E2C-952F-0FCA8C42C2FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4BA1AF-39CD-4C6A-85C8-308C97F94149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BCC17A-FE47-4763-B399-E894476AA2C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAADA82-2523-469F-B12F-C863DE331D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -781,7 +1608,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -794,7 +1621,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -807,7 +1634,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
@@ -820,7 +1647,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
@@ -833,7 +1660,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
@@ -846,7 +1673,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
@@ -859,7 +1686,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
@@ -872,7 +1699,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
@@ -885,7 +1712,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
@@ -898,7 +1725,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -907,7 +1734,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
@@ -922,7 +1749,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
@@ -953,7 +1780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7" t="s">
@@ -968,7 +1795,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="13" t="s">
@@ -999,7 +1826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
         <v>37</v>
@@ -1053,7 +1880,7 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
         <v>40</v>
@@ -1067,7 +1894,7 @@
       <c r="E18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="23" t="n">
+      <c r="F18" s="23">
         <v>50</v>
       </c>
       <c r="G18" s="23" t="s">
@@ -1078,7 +1905,7 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
@@ -1092,7 +1919,7 @@
       <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="23">
         <v>50</v>
       </c>
       <c r="G19" s="23" t="s">
@@ -1103,7 +1930,7 @@
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="20" t="s">
         <v>46</v>
@@ -1117,7 +1944,7 @@
       <c r="E20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="23">
         <v>50</v>
       </c>
       <c r="G20" s="23" t="s">
@@ -1132,7 +1959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
         <v>50</v>
@@ -1146,7 +1973,7 @@
       <c r="E21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="23">
         <v>50</v>
       </c>
       <c r="G21" s="23" t="s">
@@ -1157,7 +1984,7 @@
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>52</v>
@@ -1171,7 +1998,7 @@
       <c r="E22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="23">
         <v>50</v>
       </c>
       <c r="G22" s="23" t="s">
@@ -1186,13 +2013,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>12</v>
@@ -1200,7 +2027,7 @@
       <c r="E23" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="23">
         <v>50</v>
       </c>
       <c r="G23" s="23" t="s">
@@ -1211,7 +2038,7 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
         <v>54</v>
@@ -1225,7 +2052,7 @@
       <c r="E24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>50</v>
       </c>
       <c r="G24" s="23" t="s">
@@ -1236,7 +2063,7 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="24"/>
@@ -1249,7 +2076,7 @@
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="24"/>
@@ -1262,7 +2089,7 @@
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="24"/>
@@ -1275,7 +2102,7 @@
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="24"/>
@@ -1289,67 +2116,47 @@
       <c r="K28" s="25"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>RuleSet</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>timesheet</t>
+  </si>
+  <si>
+    <t>Review and Approve</t>
   </si>
   <si>
     <t>Costsheet</t>
@@ -621,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -669,6 +672,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,7 +808,7 @@
         <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642187AF-1973-44E5-B733-307B966B60C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74DE9DE-A24D-4577-85B8-F8C177B288AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -851,7 +857,7 @@
         <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED7096E-C38A-47D0-8D03-2DC9249B0175}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C273E6C-EFCF-48C1-9394-CD92377E5CBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -900,7 +906,7 @@
         <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A2B0A3-68EB-4955-B63A-FB9A9C9CA4A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E494776F-4F28-4EC7-962B-7C5AB088CD1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -949,7 +955,7 @@
         <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C982D9-5396-4435-989B-41FCD83359CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C157D49C-D06F-47EF-874E-83044A6149BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -998,7 +1004,7 @@
         <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FE0688-3382-4EA0-8928-FA0FE72A3886}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D743BF88-1D1C-499C-80E7-BB494604D77C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1047,7 +1053,7 @@
         <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD57464-C571-43B0-B6D2-49B3DD939A43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9858986D-2342-440F-BD72-E3F1305129C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1096,7 +1102,7 @@
         <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF81639-3F66-4E2C-952F-0FCA8C42C2FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5DCEBD-A24C-4BD3-9C90-8DA20DB3AB9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,7 +1151,7 @@
         <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4BA1AF-39CD-4C6A-85C8-308C97F94149}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E2FFF6-1434-4669-8C5E-D4305AE779DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1194,7 +1200,7 @@
         <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BCC17A-FE47-4763-B399-E894476AA2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDD96ED-EEFE-4647-AB7B-ACF37FE2E120}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1249,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAADA82-2523-469F-B12F-C863DE331D1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F32D8B-61B8-4589-89E6-C7423ABC4239}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,7 +2010,9 @@
       <c r="G22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="I22" s="23" t="s">
         <v>49</v>
       </c>
@@ -2016,10 +2024,10 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>12</v>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko.stojanoski\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadica.cuculova\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -342,9 +342,6 @@
     <t>ArkCaseBuckslipProcess</t>
   </si>
   <si>
-    <t>ann-acm,ian-acm,samuel-acm</t>
-  </si>
-  <si>
     <t>Change Case Status</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>Review and Approve</t>
+  </si>
+  <si>
+    <t>ann-acm@armedia.com,ian-acm@armedia.com,samuel-acm@armedia.com</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -393,6 +393,14 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -615,10 +623,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -669,8 +678,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1551,8 +1564,8 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1578,7 @@
     <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="66.85546875" customWidth="1"/>
     <col min="10" max="10" width="30.28515625" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" customWidth="1"/>
     <col min="12" max="1025" width="8.7109375" customWidth="1"/>
@@ -1923,8 +1936,8 @@
         <v>43</v>
       </c>
       <c r="H20" s="23"/>
-      <c r="I20" s="23" t="s">
-        <v>49</v>
+      <c r="I20" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="23" t="s">
@@ -1934,10 +1947,10 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>12</v>
@@ -1959,10 +1972,10 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>12</v>
@@ -1977,10 +1990,10 @@
         <v>43</v>
       </c>
       <c r="H22" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>49</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23" t="s">
@@ -1990,10 +2003,10 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>12</v>
@@ -2015,10 +2028,10 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>12</v>
@@ -2090,10 +2103,14 @@
       <c r="K28" s="25"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I20" r:id="rId1"/>
+    <hyperlink ref="I22" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ana.serafimoska\.arkcase\acm\rules\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,158 +26,158 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">ruleName</t>
+          <t>ruleName</t>
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">fileType</t>
+          <t>fileType</t>
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">startProcess</t>
+          <t>startProcess</t>
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">processName</t>
+          <t>processName</t>
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">priority</t>
+          <t>priority</t>
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0">
+    <comment ref="J16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0">
+    <comment ref="K16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">dueDate</t>
+          <t>dueDate</t>
         </r>
       </text>
     </comment>
@@ -182,39 +186,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
-  <si>
-    <t xml:space="preserve">RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Workflow Rules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.EvaluationContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.ExpressionParser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.spel.standard.SpelExpressionParser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.springframework.expression.spel.support.StandardEvaluationContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.armedia.acm.plugins.ecm.workflow.EcmFileWorkflowConfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function Boolean evalSpring(String expression, Object obj)
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+  <si>
+    <t>RuleSet</t>
+  </si>
+  <si>
+    <t>Form Workflow Rules</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.EvaluationContext</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.Expression</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.ExpressionParser</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.spel.standard.SpelExpressionParser</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.spel.support.StandardEvaluationContext</t>
+  </si>
+  <si>
+    <t>com.armedia.acm.plugins.ecm.workflow.EcmFileWorkflowConfiguration</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>function Boolean evalSpring(String expression, Object obj)
 {
     ExpressionParser ep = new SpelExpressionParser();
     Expression exp = ep.parseExpression(expression);
@@ -224,180 +228,164 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Sequential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleTable Form Workflow Rules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file: EcmFileWorkflowConfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecmFile.fileType.equalsIgnoreCase("$param") || "$param".equals("*")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setStartProcess($param);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setProcessName("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setTaskPriority($param);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setTaskDueDateExpression("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setTaskName("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setApprovers("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setRequestType("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$file.setBuckslipProcess($param);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If different rules apply to the same document, the last rule wins.  Be sure to put default rules first, and specific rules later.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start a Workflow Process? (true/false)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of business process to start (must be an Activiti process name)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority of user tasks (must be a number between 0 and 100; higher number is higher priority)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due date of user tasks.  Must be a valid ISO801 duration expression.  Examples: P3D = three days from now; P3H = 3 hours from now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comma-separated list of user ids; these users will be the reviewers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business-meaningful process name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is buckslip process?               false is by default.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Workflow (no other rules match)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close Complaint Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close_complaint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acmDocumentWorkflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report of Investigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckslip Complaint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complaint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArkCaseBuckslipProcess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ann-acm@armedia.com,ian-acm@armedia.com,samuel-acm@armedia.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change Case Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change_case_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckslip Case File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review and Approve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costsheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costsheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timesheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timesheet</t>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>RuleTable Form Workflow Rules</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>$file: EcmFileWorkflowConfiguration</t>
+  </si>
+  <si>
+    <t>ecmFile.fileType.equalsIgnoreCase("$param") || "$param".equals("*")</t>
+  </si>
+  <si>
+    <t>$file.setStartProcess($param);</t>
+  </si>
+  <si>
+    <t>$file.setProcessName("$param");</t>
+  </si>
+  <si>
+    <t>$file.setTaskPriority($param);</t>
+  </si>
+  <si>
+    <t>$file.setTaskDueDateExpression("$param");</t>
+  </si>
+  <si>
+    <t>$file.setTaskName("$param");</t>
+  </si>
+  <si>
+    <t>$file.setApprovers("$param");</t>
+  </si>
+  <si>
+    <t>$file.setRequestType("$param");</t>
+  </si>
+  <si>
+    <t>$file.setBuckslipProcess($param);</t>
+  </si>
+  <si>
+    <t>If different rules apply to the same document, the last rule wins.  Be sure to put default rules first, and specific rules later.</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>File Type</t>
+  </si>
+  <si>
+    <t>Start a Workflow Process? (true/false)</t>
+  </si>
+  <si>
+    <t>Name of business process to start (must be an Activiti process name)</t>
+  </si>
+  <si>
+    <t>Priority of user tasks (must be a number between 0 and 100; higher number is higher priority)</t>
+  </si>
+  <si>
+    <t>Due date of user tasks.  Must be a valid ISO801 duration expression.  Examples: P3D = three days from now; P3H = 3 hours from now.</t>
+  </si>
+  <si>
+    <t>Task name</t>
+  </si>
+  <si>
+    <t>Comma-separated list of user ids; these users will be the reviewers.</t>
+  </si>
+  <si>
+    <t>Business-meaningful process name</t>
+  </si>
+  <si>
+    <t>is buckslip process?               false is by default.</t>
+  </si>
+  <si>
+    <t>Default Workflow (no other rules match)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Close Complaint Request</t>
+  </si>
+  <si>
+    <t>close_complaint</t>
+  </si>
+  <si>
+    <t>acmDocumentWorkflow</t>
+  </si>
+  <si>
+    <t>P3D</t>
+  </si>
+  <si>
+    <t>Report of Investigation</t>
+  </si>
+  <si>
+    <t>roi</t>
+  </si>
+  <si>
+    <t>Buckslip Complaint</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>ArkCaseBuckslipProcess</t>
+  </si>
+  <si>
+    <t>ann-acm@armedia.com,ian-acm@armedia.com,samuel-acm@armedia.com</t>
+  </si>
+  <si>
+    <t>Change Case Status</t>
+  </si>
+  <si>
+    <t>change_case_status</t>
+  </si>
+  <si>
+    <t>Buckslip Case File</t>
+  </si>
+  <si>
+    <t>case_file</t>
+  </si>
+  <si>
+    <t>Review and Approve</t>
+  </si>
+  <si>
+    <t>Costsheet</t>
+  </si>
+  <si>
+    <t>costsheet</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>timesheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -407,7 +395,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -466,230 +454,230 @@
     </fill>
   </fills>
   <borders count="12">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -748,13 +736,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -768,9 +772,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -782,7 +792,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -792,9 +802,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -813,9 +829,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -827,7 +849,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -837,9 +859,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -858,9 +886,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -872,7 +906,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -882,9 +916,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -903,9 +943,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -917,7 +963,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -927,9 +973,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -948,9 +1000,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -962,7 +1020,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -972,9 +1030,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -993,9 +1057,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1007,7 +1077,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1017,9 +1087,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1038,9 +1114,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1052,7 +1134,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1062,9 +1144,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1083,9 +1171,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1097,7 +1191,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1107,9 +1201,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1128,9 +1228,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1142,7 +1248,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1152,9 +1258,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1173,9 +1285,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1187,7 +1305,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1197,46 +1315,836 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="65.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.71"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1245,7 +2153,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -1258,7 +2166,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -1271,7 +2179,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
@@ -1284,7 +2192,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
@@ -1297,7 +2205,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
@@ -1310,7 +2218,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
@@ -1323,7 +2231,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
@@ -1336,7 +2244,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
@@ -1349,7 +2257,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
@@ -1362,7 +2270,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1371,7 +2279,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
@@ -1386,7 +2294,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
@@ -1417,7 +2325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7" t="s">
@@ -1432,7 +2340,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="13" t="s">
@@ -1463,7 +2371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
@@ -1498,7 +2406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
         <v>37</v>
@@ -1517,7 +2425,7 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
         <v>40</v>
@@ -1531,7 +2439,7 @@
       <c r="E18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="23" t="n">
+      <c r="F18" s="23">
         <v>50</v>
       </c>
       <c r="G18" s="23" t="s">
@@ -1542,7 +2450,7 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
@@ -1556,7 +2464,7 @@
       <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="23">
         <v>50</v>
       </c>
       <c r="G19" s="23" t="s">
@@ -1567,7 +2475,7 @@
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="20" t="s">
         <v>46</v>
@@ -1581,13 +2489,15 @@
       <c r="E20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="23">
         <v>50</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="I20" s="23" t="s">
         <v>49</v>
       </c>
@@ -1596,7 +2506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
         <v>50</v>
@@ -1610,7 +2520,7 @@
       <c r="E21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="23">
         <v>50</v>
       </c>
       <c r="G21" s="23" t="s">
@@ -1621,7 +2531,7 @@
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>52</v>
@@ -1635,7 +2545,7 @@
       <c r="E22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="23">
         <v>50</v>
       </c>
       <c r="G22" s="23" t="s">
@@ -1652,7 +2562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
         <v>55</v>
@@ -1666,7 +2576,7 @@
       <c r="E23" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="23">
         <v>50</v>
       </c>
       <c r="G23" s="23" t="s">
@@ -1677,7 +2587,7 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
         <v>57</v>
@@ -1691,7 +2601,7 @@
       <c r="E24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>50</v>
       </c>
       <c r="G24" s="23" t="s">
@@ -1702,7 +2612,7 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="24"/>
@@ -1715,7 +2625,7 @@
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="24"/>
@@ -1728,7 +2638,7 @@
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="24"/>
@@ -1741,7 +2651,7 @@
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="24"/>
@@ -1756,70 +2666,49 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I22" r:id="rId2" display="ann-acm@armedia.com"/>
+    <hyperlink ref="I22" r:id="rId1" display="ann-acm@armedia.com"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.71"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.71"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36D17DB-CAC0-43EE-8189-0A2768F3F632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFBD7B4-42EE-4551-9E1D-E8AEB67B8B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,10 @@
     <t>ArkCaseBuckslipProcess</t>
   </si>
   <si>
-    <t>ann-acm@armedia.com,ian-acm@armedia.com,samuel-acm@armedia.com</t>
+    <t>Review and Approve</t>
+  </si>
+  <si>
+    <t>arkcase-admin@arkcase.org</t>
   </si>
   <si>
     <t>Change Case Status</t>
@@ -191,9 +194,6 @@
   </si>
   <si>
     <t>case_file</t>
-  </si>
-  <si>
-    <t>Review and Approve</t>
   </si>
   <si>
     <t>Costsheet</t>
@@ -596,9 +596,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>1028520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -614,7 +614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10019520" cy="9494280"/>
+          <a:ext cx="10019160" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,9 +623,6 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -653,9 +650,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>1028520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -671,7 +668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10019520" cy="9494280"/>
+          <a:ext cx="10019160" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -680,9 +677,6 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -710,9 +704,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>1028520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -728,7 +722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10019520" cy="9494280"/>
+          <a:ext cx="10019160" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -737,9 +731,6 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -767,9 +758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>1028520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -785,7 +776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10019520" cy="9494280"/>
+          <a:ext cx="10019160" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,9 +785,6 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -824,9 +812,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>1028520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -842,7 +830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10019520" cy="9494280"/>
+          <a:ext cx="10019160" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,9 +839,6 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -881,9 +866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>1028520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -899,7 +884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10019520" cy="9494280"/>
+          <a:ext cx="10019160" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,9 +893,6 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -938,9 +920,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>1028520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -956,7 +938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10019520" cy="9494280"/>
+          <a:ext cx="10019160" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -965,9 +947,6 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -995,9 +974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>1028520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1013,7 +992,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10019520" cy="9494280"/>
+          <a:ext cx="10019160" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1022,9 +1001,6 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1052,9 +1028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>1028520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1070,7 +1046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10019520" cy="9494280"/>
+          <a:ext cx="10019160" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,9 +1055,6 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1109,9 +1082,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>1028520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1127,7 +1100,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10019520" cy="9494280"/>
+          <a:ext cx="10019160" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1136,9 +1109,6 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1166,13 +1136,583 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1028880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10019520" cy="9494280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10019520" cy="9494280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10019520" cy="9494280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10019520" cy="9494280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10019520" cy="9494280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10019520" cy="9494280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10019520" cy="9494280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10019520" cy="9494280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10019520" cy="9494280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10019520" cy="9494280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
@@ -1221,7 +1761,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
+        <xdr:cNvPr id="1042" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
@@ -1270,7 +1810,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
+        <xdr:cNvPr id="1040" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
@@ -1319,7 +1859,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
+        <xdr:cNvPr id="1038" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
@@ -1368,7 +1908,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
+        <xdr:cNvPr id="1036" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
@@ -1417,7 +1957,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
+        <xdr:cNvPr id="1034" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
@@ -1466,7 +2006,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+        <xdr:cNvPr id="1032" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
@@ -1515,7 +2055,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+        <xdr:cNvPr id="1030" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
@@ -1564,7 +2104,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+        <xdr:cNvPr id="1028" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
@@ -1613,7 +2153,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+        <xdr:cNvPr id="1026" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
@@ -1952,8 +2492,8 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,10 +2864,10 @@
         <v>43</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="23" t="s">
@@ -2337,10 +2877,10 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>12</v>
@@ -2362,10 +2902,10 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>12</v>
@@ -2380,10 +2920,10 @@
         <v>43</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23" t="s">
@@ -2494,11 +3034,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I22" r:id="rId1" display="ann-acm@armedia.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ana.serafimoska\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefan.sanevski\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B50116-D860-4687-860E-0DBF671FAA32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0">
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0">
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0">
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0" shapeId="0">
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>RuleSet</t>
   </si>
@@ -371,15 +372,30 @@
   <si>
     <t>timesheet</t>
   </si>
+  <si>
+    <t>ArrestWarrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
+  </si>
+  <si>
+    <t>arrestWarrant</t>
+  </si>
+  <si>
+    <t>Review Arrest Warrant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -399,6 +415,14 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -621,10 +645,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -672,8 +697,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2118,14 +2147,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,16 +2643,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="23">
+        <v>50</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
+      <c r="K25" s="23" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
@@ -2666,17 +2713,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I22" r:id="rId1" display="ann-acm@armedia.com"/>
+    <hyperlink ref="I22" r:id="rId1" display="ann-acm@armedia.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I25" r:id="rId2" xr:uid="{C1AC9B01-C98D-4B2C-8EE4-2146AE10C06D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -2695,7 +2743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefan.sanevski\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nebojsha\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B50116-D860-4687-860E-0DBF671FAA32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A738E20-2F2B-4F3F-9D76-15116B331573}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,9 +343,6 @@
     <t>ArkCaseBuckslipProcess</t>
   </si>
   <si>
-    <t>ann-acm@armedia.com,ian-acm@armedia.com,samuel-acm@armedia.com</t>
-  </si>
-  <si>
     <t>Change Case Status</t>
   </si>
   <si>
@@ -386,6 +383,9 @@
   </si>
   <si>
     <t>Review Arrest Warrant</t>
+  </si>
+  <si>
+    <t>000.ann-acm@appdev.armedia.com,000.ian-acm@appdev.armedia.com,000.samuel-acm@appdev.armedia.com</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2154,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,10 +2525,10 @@
         <v>43</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="23" t="s">
@@ -2538,10 +2538,10 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>12</v>
@@ -2563,10 +2563,10 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>12</v>
@@ -2581,10 +2581,10 @@
         <v>43</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23" t="s">
@@ -2594,10 +2594,10 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>12</v>
@@ -2619,10 +2619,10 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>58</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>12</v>
@@ -2644,16 +2644,16 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="D25" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>62</v>
       </c>
       <c r="F25" s="23">
         <v>50</v>
@@ -2662,14 +2662,14 @@
         <v>43</v>
       </c>
       <c r="H25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2713,13 +2713,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I22" r:id="rId1" display="ann-acm@armedia.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I25" r:id="rId2" xr:uid="{C1AC9B01-C98D-4B2C-8EE4-2146AE10C06D}"/>
+    <hyperlink ref="I20" r:id="rId3" xr:uid="{AE8FE7C9-AA14-41E7-8956-26EE48AFF0AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nebojsha\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasko.tanaskoski\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A738E20-2F2B-4F3F-9D76-15116B331573}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA5FF0-62E1-4B80-B7E5-1C4A55CE15CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
     <t>Review Arrest Warrant</t>
   </si>
   <si>
-    <t>000.ann-acm@appdev.armedia.com,000.ian-acm@appdev.armedia.com,000.samuel-acm@appdev.armedia.com</t>
+    <t>ann-acm@armedia.com,ian-acm@armedia.com,samuel-acm@armedia.com</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2154,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasko.tanaskoski\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrijana.maneva\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA5FF0-62E1-4B80-B7E5-1C4A55CE15CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070387A7-F1D7-49BA-84F3-63F8307A66E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>RuleSet</t>
   </si>
@@ -356,18 +356,6 @@
   </si>
   <si>
     <t>Review and Approve</t>
-  </si>
-  <si>
-    <t>Costsheet</t>
-  </si>
-  <si>
-    <t>costsheet</t>
-  </si>
-  <si>
-    <t>Timesheet</t>
-  </si>
-  <si>
-    <t>timesheet</t>
   </si>
   <si>
     <t>ArrestWarrant</t>
@@ -1368,7 +1356,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1417,7 +1405,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1466,7 +1454,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1515,7 +1503,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1564,7 +1552,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1613,7 +1601,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1662,7 +1650,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1711,7 +1699,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1760,7 +1748,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1809,7 +1797,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2151,10 +2139,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="23" t="s">
@@ -2584,7 +2572,7 @@
         <v>53</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23" t="s">
@@ -2600,10 +2588,10 @@
         <v>55</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F23" s="23">
         <v>50</v>
@@ -2611,31 +2599,25 @@
       <c r="G23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
+      <c r="K23" s="23" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="23">
-        <v>50</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>43</v>
-      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -2643,34 +2625,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="23">
-        <v>50</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23" t="s">
-        <v>60</v>
-      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
@@ -2682,39 +2646,13 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I25" r:id="rId2" xr:uid="{C1AC9B01-C98D-4B2C-8EE4-2146AE10C06D}"/>
+    <hyperlink ref="I23" r:id="rId2" xr:uid="{C1AC9B01-C98D-4B2C-8EE4-2146AE10C06D}"/>
     <hyperlink ref="I20" r:id="rId3" xr:uid="{AE8FE7C9-AA14-41E7-8956-26EE48AFF0AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrijana.maneva\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070387A7-F1D7-49BA-84F3-63F8307A66E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6402E-6A02-4B2D-843E-000F6DBEF033}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -686,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2142,7 +2145,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2531,7 +2534,7 @@
       <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="23" t="s">

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrijana.maneva\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasko.tanaskoski\Desktop\Rules-To-Push\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6402E-6A02-4B2D-843E-000F6DBEF033}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4089CA23-1569-4055-9537-B6FCDCFF5313}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>RuleSet</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>ann-acm@armedia.com,ian-acm@armedia.com,samuel-acm@armedia.com</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -2142,26 +2148,26 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2437,13 +2443,27 @@
       <c r="D17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="E17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
@@ -2459,16 +2479,24 @@
       <c r="E18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="23">
-        <v>50</v>
+      <c r="F18" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="H18" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
@@ -2484,16 +2512,24 @@
       <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="23">
-        <v>50</v>
+      <c r="F19" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="H19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -2509,8 +2545,8 @@
       <c r="E20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="23">
-        <v>50</v>
+      <c r="F20" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>43</v>
@@ -2521,7 +2557,9 @@
       <c r="I20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="K20" s="23" t="s">
         <v>12</v>
       </c>
@@ -2540,16 +2578,24 @@
       <c r="E21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="23">
-        <v>50</v>
+      <c r="F21" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="H21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
@@ -2565,8 +2611,8 @@
       <c r="E22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="23">
-        <v>50</v>
+      <c r="F22" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>43</v>
@@ -2577,7 +2623,9 @@
       <c r="I22" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="23"/>
+      <c r="J22" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="K22" s="23" t="s">
         <v>12</v>
       </c>
@@ -2596,8 +2644,8 @@
       <c r="E23" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="23">
-        <v>50</v>
+      <c r="F23" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>43</v>
@@ -2608,47 +2656,101 @@
       <c r="I23" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="23"/>
+      <c r="J23" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="K23" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
+      <c r="B24" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="B26" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
     </row>
@@ -2670,13 +2772,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2689,13 +2791,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasko.tanaskoski\Desktop\Rules-To-Push\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksandar.acevski\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4089CA23-1569-4055-9537-B6FCDCFF5313}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6CCCFD-A89A-4D85-8F23-92D2C27F411D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
   <si>
     <t>RuleSet</t>
   </si>
@@ -373,13 +373,13 @@
     <t>Review Arrest Warrant</t>
   </si>
   <si>
-    <t>ann-acm@armedia.com,ian-acm@armedia.com,samuel-acm@armedia.com</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>ann-acm@arkcase.org,sally-acm@arkcase.org,samuel-acm@arkcase.org</t>
   </si>
 </sst>
 </file>
@@ -796,7 +796,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -853,7 +853,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -910,7 +910,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -967,7 +967,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1024,7 +1024,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1081,7 +1081,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1138,7 +1138,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1195,7 +1195,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1252,7 +1252,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1309,7 +1309,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2150,27 +2150,27 @@
   </sheetPr>
   <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.59765625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.265625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.86328125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.73046875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.73046875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.1328125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.59765625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.73046875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="65.1328125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.73046875" customWidth="1" collapsed="1"/>
+    <col min="12" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2179,7 +2179,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -2192,7 +2192,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -2205,7 +2205,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
@@ -2218,7 +2218,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
@@ -2231,7 +2231,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
@@ -2244,7 +2244,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
@@ -2257,7 +2257,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
@@ -2270,7 +2270,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
@@ -2283,7 +2283,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
@@ -2296,7 +2296,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2305,7 +2305,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
@@ -2320,7 +2320,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
@@ -2351,7 +2351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7" t="s">
@@ -2366,7 +2366,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="13" t="s">
@@ -2397,7 +2397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
         <v>37</v>
@@ -2444,28 +2444,28 @@
         <v>39</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
         <v>40</v>
@@ -2480,25 +2480,25 @@
         <v>42</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
@@ -2513,25 +2513,25 @@
         <v>42</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="20" t="s">
         <v>46</v>
@@ -2546,7 +2546,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>43</v>
@@ -2555,16 +2555,16 @@
         <v>53</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -2579,25 +2579,25 @@
         <v>42</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>51</v>
@@ -2612,7 +2612,7 @@
         <v>48</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>43</v>
@@ -2621,16 +2621,16 @@
         <v>53</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
         <v>54</v>
@@ -2645,7 +2645,7 @@
         <v>57</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>43</v>
@@ -2654,116 +2654,116 @@
         <v>58</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="B26" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I23" r:id="rId2" xr:uid="{C1AC9B01-C98D-4B2C-8EE4-2146AE10C06D}"/>
-    <hyperlink ref="I20" r:id="rId3" xr:uid="{AE8FE7C9-AA14-41E7-8956-26EE48AFF0AC}"/>
+    <hyperlink ref="I23" r:id="rId1" xr:uid="{9CAAFBA4-288C-46BC-86F9-3FB1B05525DD}"/>
+    <hyperlink ref="I22" r:id="rId2" xr:uid="{99F591C3-4BE3-4FEA-BA65-85D8D4FE2478}"/>
+    <hyperlink ref="I20" r:id="rId3" xr:uid="{98B6CF15-E635-44A2-A694-26546654BB20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2776,9 +2776,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2795,9 +2795,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksandar.acevski\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6CCCFD-A89A-4D85-8F23-92D2C27F411D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C62963-0D67-4635-ADBE-A0A541765789}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
   <si>
     <t>RuleSet</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>ann-acm@arkcase.org,sally-acm@arkcase.org,samuel-acm@arkcase.org</t>
+  </si>
+  <si>
+    <t>Change Consultation Status</t>
   </si>
 </sst>
 </file>
@@ -795,8 +798,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180915</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>371415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -852,8 +855,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180915</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>371415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -909,8 +912,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180915</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>371415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -966,8 +969,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180915</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>371415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1023,8 +1026,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180915</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>371415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1080,8 +1083,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180915</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>371415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1137,8 +1140,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180915</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>371415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1194,8 +1197,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180915</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>371415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1251,8 +1254,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180915</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>371415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1308,8 +1311,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180915</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>371415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2150,27 +2153,27 @@
   </sheetPr>
   <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.265625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.86328125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.73046875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.73046875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.1328125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.59765625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.73046875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="65.1328125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.73046875" customWidth="1" collapsed="1"/>
-    <col min="12" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2179,7 +2182,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -2192,7 +2195,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -2205,7 +2208,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
@@ -2218,7 +2221,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
@@ -2231,7 +2234,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
@@ -2244,7 +2247,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
@@ -2257,7 +2260,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
@@ -2270,7 +2273,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
@@ -2283,7 +2286,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
@@ -2296,7 +2299,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2305,7 +2308,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
@@ -2320,7 +2323,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
@@ -2351,7 +2354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7" t="s">
@@ -2366,7 +2369,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="13" t="s">
@@ -2397,7 +2400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
         <v>37</v>
@@ -2465,7 +2468,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
         <v>40</v>
@@ -2498,7 +2501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
@@ -2531,7 +2534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="20" t="s">
         <v>46</v>
@@ -2564,7 +2567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -2597,7 +2600,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>51</v>
@@ -2630,7 +2633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
         <v>54</v>
@@ -2663,25 +2666,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H24" s="23" t="s">
         <v>59</v>
@@ -2696,7 +2699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="20" t="s">
         <v>59</v>
@@ -2725,7 +2728,7 @@
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="20" t="s">
         <v>59</v>
@@ -2776,9 +2779,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2795,9 +2798,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksandar.acevski\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C62963-0D67-4635-ADBE-A0A541765789}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B066574-9D30-4D10-80A5-CFFA87A5E164}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
   <si>
     <t>RuleSet</t>
   </si>
@@ -313,9 +313,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Close Complaint Request</t>
   </si>
   <si>
@@ -383,6 +380,9 @@
   </si>
   <si>
     <t>Change Consultation Status</t>
+  </si>
+  <si>
+    <t>change_consultation_status</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -695,9 +695,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -799,7 +796,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>371415</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -856,7 +853,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>371415</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -913,7 +910,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>371415</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -970,7 +967,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>371415</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1027,7 +1024,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>371415</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1084,7 +1081,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>371415</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1141,7 +1138,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>371415</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1198,7 +1195,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>371415</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1255,7 +1252,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>371415</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1312,7 +1309,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>371415</xdr:rowOff>
+      <xdr:rowOff>180915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2153,27 +2150,27 @@
   </sheetPr>
   <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.59765625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.265625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.86328125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.73046875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.73046875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.1328125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.59765625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.73046875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="65.1328125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.73046875" customWidth="1" collapsed="1"/>
+    <col min="12" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2182,7 +2179,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -2195,7 +2192,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -2208,7 +2205,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
@@ -2221,7 +2218,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
@@ -2234,7 +2231,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
@@ -2247,7 +2244,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
@@ -2260,7 +2257,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
@@ -2273,7 +2270,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
@@ -2286,7 +2283,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
@@ -2299,7 +2296,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2308,7 +2305,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
@@ -2323,7 +2320,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
@@ -2354,7 +2351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7" t="s">
@@ -2369,7 +2366,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="13" t="s">
@@ -2400,7 +2397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
@@ -2435,7 +2432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
         <v>37</v>
@@ -2443,316 +2440,316 @@
       <c r="C17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>39</v>
+      <c r="D17" s="22" t="b">
+        <v>0</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="23" t="s">
+      <c r="F18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="H18" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>12</v>
+      <c r="D19" s="22" t="b">
+        <v>1</v>
       </c>
       <c r="E19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="H19" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="D20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>48</v>
-      </c>
       <c r="F20" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>61</v>
-      </c>
       <c r="J20" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>12</v>
+      <c r="D21" s="22" t="b">
+        <v>1</v>
       </c>
       <c r="E21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="H21" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="D22" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="I22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>61</v>
-      </c>
       <c r="J22" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>56</v>
+      <c r="D24" s="22" t="b">
+        <v>1</v>
       </c>
       <c r="E24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="H24" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="B26" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -2779,9 +2776,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2798,9 +2795,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksandar.acevski\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin.jovanovski\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B066574-9D30-4D10-80A5-CFFA87A5E164}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC54108-AB01-4190-BCF4-FF9FF00E1E52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
   <si>
     <t>RuleSet</t>
   </si>
@@ -364,12 +364,6 @@
     <t xml:space="preserve">true </t>
   </si>
   <si>
-    <t>arrestWarrant</t>
-  </si>
-  <si>
-    <t>Review Arrest Warrant</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -383,6 +377,9 @@
   </si>
   <si>
     <t>change_consultation_status</t>
+  </si>
+  <si>
+    <t>acmDocumentSingleTaskWorkflow</t>
   </si>
 </sst>
 </file>
@@ -2150,27 +2147,27 @@
   </sheetPr>
   <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.265625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.86328125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.73046875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.73046875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.1328125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.59765625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.73046875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="65.1328125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.73046875" customWidth="1" collapsed="1"/>
-    <col min="12" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.81640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7265625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.7265625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.08984375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.6328125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.7265625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="65.08984375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.26953125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.7265625" customWidth="1" collapsed="1"/>
+    <col min="12" max="1025" width="8.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2179,7 +2176,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -2192,7 +2189,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -2205,7 +2202,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
@@ -2218,7 +2215,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
@@ -2231,7 +2228,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
@@ -2244,7 +2241,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
@@ -2257,7 +2254,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
@@ -2270,7 +2267,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
@@ -2283,7 +2280,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
@@ -2296,7 +2293,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2305,7 +2302,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
@@ -2320,7 +2317,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
@@ -2351,7 +2348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7" t="s">
@@ -2366,7 +2363,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="13" t="s">
@@ -2397,7 +2394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
@@ -2432,7 +2429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
         <v>37</v>
@@ -2444,28 +2441,28 @@
         <v>0</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
         <v>39</v>
@@ -2480,25 +2477,25 @@
         <v>41</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="20" t="s">
         <v>43</v>
@@ -2513,25 +2510,25 @@
         <v>41</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="20" t="s">
         <v>45</v>
@@ -2546,7 +2543,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>42</v>
@@ -2555,16 +2552,16 @@
         <v>52</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
         <v>48</v>
@@ -2579,25 +2576,25 @@
         <v>41</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>50</v>
@@ -2612,7 +2609,7 @@
         <v>47</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>42</v>
@@ -2621,16 +2618,16 @@
         <v>52</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
         <v>53</v>
@@ -2642,34 +2639,32 @@
         <v>1</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="23" t="s">
-        <v>57</v>
-      </c>
+      <c r="H23" s="23"/>
       <c r="I23" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="22" t="b">
         <v>1</v>
@@ -2678,78 +2673,78 @@
         <v>41</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>42</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
       <c r="B26" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -2776,9 +2771,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1025" width="8.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2795,9 +2790,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1025" width="8.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/acm/rules/drools-form-business-process-rules.xlsx
+++ b/acm/rules/drools-form-business-process-rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin.jovanovski\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC54108-AB01-4190-BCF4-FF9FF00E1E52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69FBCBA-F84A-47C3-8410-2ADD0AB139E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
   <si>
     <t>RuleSet</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>acmDocumentSingleTaskWorkflow</t>
+  </si>
+  <si>
+    <t>Review DocumentSingleTask</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2151,7 @@
   <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2647,7 +2650,9 @@
       <c r="G23" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="I23" s="26" t="s">
         <v>58</v>
       </c>
